--- a/consumption_tables/Total energy consumption._              Billion Btu/Coal total consumption._            Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Coal total consumption._            Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>StateCode</t>
   </si>
@@ -56,151 +56,598 @@
     <t>AL</t>
   </si>
   <si>
+    <t>40.97743616038272%</t>
+  </si>
+  <si>
+    <t>25.886133918878652%</t>
+  </si>
+  <si>
+    <t>-15.09130224150407%</t>
+  </si>
+  <si>
     <t>AR</t>
   </si>
   <si>
+    <t>24.851416320545848%</t>
+  </si>
+  <si>
+    <t>21.495837999359544%</t>
+  </si>
+  <si>
+    <t>-3.3555783211863037%</t>
+  </si>
+  <si>
     <t>AZ</t>
   </si>
   <si>
+    <t>36.57588418923625%</t>
+  </si>
+  <si>
+    <t>26.795743761732886%</t>
+  </si>
+  <si>
+    <t>-9.780140427503362%</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
+    <t>1.1303997204087384%</t>
+  </si>
+  <si>
+    <t>0.4034083951466454%</t>
+  </si>
+  <si>
+    <t>-0.726991325262093%</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
+    <t>36.16364673195328%</t>
+  </si>
+  <si>
+    <t>22.97667857700204%</t>
+  </si>
+  <si>
+    <t>-13.186968154951238%</t>
+  </si>
+  <si>
     <t>CT</t>
   </si>
   <si>
+    <t>5.012592983072688%</t>
+  </si>
+  <si>
+    <t>0.8696091814550786%</t>
+  </si>
+  <si>
+    <t>-4.142983801617609%</t>
+  </si>
+  <si>
     <t>DE</t>
   </si>
   <si>
+    <t>23.289253221841186%</t>
+  </si>
+  <si>
+    <t>2.571443986835243%</t>
+  </si>
+  <si>
+    <t>-20.717809235005944%</t>
+  </si>
+  <si>
     <t>FL</t>
   </si>
   <si>
+    <t>19.305614779544015%</t>
+  </si>
+  <si>
+    <t>10.998669164095958%</t>
+  </si>
+  <si>
+    <t>-8.306945615448058%</t>
+  </si>
+  <si>
     <t>GA</t>
   </si>
   <si>
+    <t>32.0279570991998%</t>
+  </si>
+  <si>
+    <t>13.841988821611551%</t>
+  </si>
+  <si>
+    <t>-18.185968277588252%</t>
+  </si>
+  <si>
     <t>HI</t>
   </si>
   <si>
+    <t>0.22431639500841574%</t>
+  </si>
+  <si>
+    <t>5.535057963727525%</t>
+  </si>
+  <si>
+    <t>5.310741568719108%</t>
+  </si>
+  <si>
     <t>IA</t>
   </si>
   <si>
+    <t>35.416986037208034%</t>
+  </si>
+  <si>
+    <t>23.30030773347605%</t>
+  </si>
+  <si>
+    <t>-12.116678303731984%</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>2.4878272580621292%</t>
+  </si>
+  <si>
+    <t>0.8103165173744143%</t>
+  </si>
+  <si>
+    <t>-1.677510740687715%</t>
+  </si>
+  <si>
     <t>IL</t>
   </si>
   <si>
+    <t>20.89143926225331%</t>
+  </si>
+  <si>
+    <t>21.569517645089455%</t>
+  </si>
+  <si>
+    <t>0.6780783828361443%</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
+    <t>54.63794637071714%</t>
+  </si>
+  <si>
+    <t>35.39501406529798%</t>
+  </si>
+  <si>
+    <t>-19.24293230541916%</t>
+  </si>
+  <si>
     <t>KS</t>
   </si>
   <si>
+    <t>25.480775091307184%</t>
+  </si>
+  <si>
+    <t>25.2547728635149%</t>
+  </si>
+  <si>
+    <t>-0.22600222779228218%</t>
+  </si>
+  <si>
     <t>KY</t>
   </si>
   <si>
+    <t>54.92899590717274%</t>
+  </si>
+  <si>
+    <t>46.160247954767264%</t>
+  </si>
+  <si>
+    <t>-8.768747952405477%</t>
+  </si>
+  <si>
     <t>LA</t>
   </si>
   <si>
+    <t>5.41353457510294%</t>
+  </si>
+  <si>
+    <t>4.090753053959029%</t>
+  </si>
+  <si>
+    <t>-1.3227815211439111%</t>
+  </si>
+  <si>
     <t>MA</t>
   </si>
   <si>
+    <t>8.103539700975661%</t>
+  </si>
+  <si>
+    <t>1.6733120671290416%</t>
+  </si>
+  <si>
+    <t>-6.43022763384662%</t>
+  </si>
+  <si>
     <t>MD</t>
   </si>
   <si>
+    <t>22.5760007943469%</t>
+  </si>
+  <si>
+    <t>11.861238500971085%</t>
+  </si>
+  <si>
+    <t>-10.714762293375815%</t>
+  </si>
+  <si>
     <t>ME</t>
   </si>
   <si>
+    <t>2.2772004408754527%</t>
+  </si>
+  <si>
+    <t>0.6379899864168284%</t>
+  </si>
+  <si>
+    <t>-1.6392104544586243%</t>
+  </si>
+  <si>
     <t>MI</t>
   </si>
   <si>
+    <t>27.418707793412008%</t>
+  </si>
+  <si>
+    <t>22.305832154105666%</t>
+  </si>
+  <si>
+    <t>-5.112875639306342%</t>
+  </si>
+  <si>
     <t>MN</t>
   </si>
   <si>
+    <t>23.230959861928575%</t>
+  </si>
+  <si>
+    <t>15.343622681464314%</t>
+  </si>
+  <si>
+    <t>-7.887337180464261%</t>
+  </si>
+  <si>
     <t>MO</t>
   </si>
   <si>
+    <t>36.36768042230757%</t>
+  </si>
+  <si>
+    <t>38.1221944864131%</t>
+  </si>
+  <si>
+    <t>1.7545140641055283%</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
+    <t>10.10134974261694%</t>
+  </si>
+  <si>
+    <t>6.323530710079544%</t>
+  </si>
+  <si>
+    <t>-3.777819032537395%</t>
+  </si>
+  <si>
     <t>MT</t>
   </si>
   <si>
+    <t>48.58222246519216%</t>
+  </si>
+  <si>
+    <t>45.5813751488118%</t>
+  </si>
+  <si>
+    <t>-3.0008473163803586%</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
+    <t>27.64537079872761%</t>
+  </si>
+  <si>
+    <t>16.068548043581714%</t>
+  </si>
+  <si>
+    <t>-11.576822755145894%</t>
+  </si>
+  <si>
     <t>ND</t>
   </si>
   <si>
+    <t>119.84467299409283%</t>
+  </si>
+  <si>
+    <t>67.16850762801553%</t>
+  </si>
+  <si>
+    <t>-52.6761653660773%</t>
+  </si>
+  <si>
     <t>NE</t>
   </si>
   <si>
+    <t>27.02572582839679%</t>
+  </si>
+  <si>
+    <t>31.217025486419864%</t>
+  </si>
+  <si>
+    <t>4.191299658023073%</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
+    <t>11.794133592566974%</t>
+  </si>
+  <si>
+    <t>3.6004246201026167%</t>
+  </si>
+  <si>
+    <t>-8.193708972464357%</t>
+  </si>
+  <si>
     <t>NJ</t>
   </si>
   <si>
+    <t>3.597748557449766%</t>
+  </si>
+  <si>
+    <t>1.002118765389681%</t>
+  </si>
+  <si>
+    <t>-2.595629792060085%</t>
+  </si>
+  <si>
     <t>NM</t>
   </si>
   <si>
+    <t>46.21780265877986%</t>
+  </si>
+  <si>
+    <t>31.92965212409908%</t>
+  </si>
+  <si>
+    <t>-14.288150534680781%</t>
+  </si>
+  <si>
     <t>NV</t>
   </si>
   <si>
+    <t>41.01112445295676%</t>
+  </si>
+  <si>
+    <t>5.640162700257722%</t>
+  </si>
+  <si>
+    <t>-35.37096175269903%</t>
+  </si>
+  <si>
     <t>NY</t>
   </si>
   <si>
+    <t>9.363713778683449%</t>
+  </si>
+  <si>
+    <t>1.107297893500072%</t>
+  </si>
+  <si>
+    <t>-8.256415885183378%</t>
+  </si>
+  <si>
     <t>OH</t>
   </si>
   <si>
+    <t>37.79939810095228%</t>
+  </si>
+  <si>
+    <t>23.142192129215655%</t>
+  </si>
+  <si>
+    <t>-14.657205971736627%</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>20.16184026409323%</t>
+  </si>
+  <si>
+    <t>17.214615511966006%</t>
+  </si>
+  <si>
+    <t>-2.947224752127223%</t>
+  </si>
+  <si>
     <t>OR</t>
   </si>
   <si>
+    <t>1.600701699863831%</t>
+  </si>
+  <si>
+    <t>2.7715293950404103%</t>
+  </si>
+  <si>
+    <t>1.1708276951765793%</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
+    <t>40.420018030396456%</t>
+  </si>
+  <si>
+    <t>22.642260482520847%</t>
+  </si>
+  <si>
+    <t>-17.77775754787561%</t>
+  </si>
+  <si>
     <t>RI</t>
   </si>
   <si>
+    <t>0.06064709035006065%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>-0.06064709035006065%</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
+    <t>22.900311252683178%</t>
+  </si>
+  <si>
+    <t>14.63262092293059%</t>
+  </si>
+  <si>
+    <t>-8.267690329752588%</t>
+  </si>
+  <si>
     <t>SD</t>
   </si>
   <si>
+    <t>16.05128016344862%</t>
+  </si>
+  <si>
+    <t>5.115006818792226%</t>
+  </si>
+  <si>
+    <t>-10.936273344656394%</t>
+  </si>
+  <si>
     <t>TN</t>
   </si>
   <si>
+    <t>33.510710128445645%</t>
+  </si>
+  <si>
+    <t>17.10072472193156%</t>
+  </si>
+  <si>
+    <t>-16.409985406514085%</t>
+  </si>
+  <si>
     <t>TX</t>
   </si>
   <si>
+    <t>12.94153881803735%</t>
+  </si>
+  <si>
+    <t>10.392796121016868%</t>
+  </si>
+  <si>
+    <t>-2.548742697020481%</t>
+  </si>
+  <si>
     <t>UT</t>
   </si>
   <si>
+    <t>68.45893587281682%</t>
+  </si>
+  <si>
+    <t>41.72367105298089%</t>
+  </si>
+  <si>
+    <t>-26.735264819835933%</t>
+  </si>
+  <si>
     <t>VA</t>
   </si>
   <si>
+    <t>18.0816863006911%</t>
+  </si>
+  <si>
+    <t>9.816577191610927%</t>
+  </si>
+  <si>
+    <t>-8.265109109080173%</t>
+  </si>
+  <si>
     <t>VT</t>
   </si>
   <si>
+    <t>0.15933665218632084%</t>
+  </si>
+  <si>
+    <t>-0.15933665218632084%</t>
+  </si>
+  <si>
     <t>WA</t>
   </si>
   <si>
+    <t>4.181468143638256%</t>
+  </si>
+  <si>
+    <t>2.930656600251258%</t>
+  </si>
+  <si>
+    <t>-1.2508115433869977%</t>
+  </si>
+  <si>
     <t>WI</t>
   </si>
   <si>
+    <t>26.56713140849709%</t>
+  </si>
+  <si>
+    <t>22.981208049157015%</t>
+  </si>
+  <si>
+    <t>-3.5859233593400752%</t>
+  </si>
+  <si>
     <t>WV</t>
   </si>
   <si>
+    <t>123.98193963033302%</t>
+  </si>
+  <si>
+    <t>94.32634547014834%</t>
+  </si>
+  <si>
+    <t>-29.655594160184677%</t>
+  </si>
+  <si>
     <t>WY</t>
   </si>
   <si>
+    <t>115.10673933670645%</t>
+  </si>
+  <si>
+    <t>93.01531235680464%</t>
+  </si>
+  <si>
+    <t>-22.09142697990181%</t>
+  </si>
+  <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>22.682034631194504%</t>
+  </si>
+  <si>
+    <t>15.988505169878724%</t>
+  </si>
+  <si>
+    <t>-6.69352946131578%</t>
   </si>
 </sst>
 </file>
@@ -631,14 +1078,14 @@
       <c r="G2" s="2" t="n">
         <v>4854000</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0.4097743616038272</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0.2588613391887865</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>-0.1509130224150407</v>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>0.1685175308641975</v>
@@ -655,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>212707</v>
@@ -672,14 +1119,14 @@
       <c r="G3" s="2" t="n">
         <v>2978000</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0.2485141632054585</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0.2149583799935955</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>-0.03355578321186303</v>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>0.09024480271531608</v>
@@ -696,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>343415</v>
@@ -713,14 +1160,14 @@
       <c r="G4" s="2" t="n">
         <v>6818000</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0.3657588418923625</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.2679574376173289</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>-0.09780140427503364</v>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0.09321796959826276</v>
@@ -737,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>84160</v>
@@ -754,14 +1201,14 @@
       <c r="G5" s="2" t="n">
         <v>38994000</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0.01130399720408738</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.004034083951466454</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>-0.00726991325262093</v>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>0.002809078771695594</v>
@@ -778,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>337375</v>
@@ -795,14 +1242,14 @@
       <c r="G6" s="2" t="n">
         <v>5449000</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0.3616364673195328</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.2297667857700204</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>-0.1318696815495124</v>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>0.1019876058041112</v>
@@ -819,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>38511</v>
@@ -836,14 +1283,14 @@
       <c r="G7" s="2" t="n">
         <v>3585000</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0.05012592983072688</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.008696091814550786</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>-0.04142983801617609</v>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>0.01169835965978129</v>
@@ -860,7 +1307,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>59491</v>
@@ -877,14 +1324,14 @@
       <c r="G8" s="2" t="n">
         <v>944000</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>0.2328925322184119</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0.02571443986835243</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>-0.2071780923500594</v>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>0.08879253731343284</v>
@@ -901,7 +1348,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>633390</v>
@@ -918,14 +1365,14 @@
       <c r="G9" s="2" t="n">
         <v>20245000</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>0.1930561477954402</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0.1099866916409596</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>-0.08306945615448059</v>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>0.04859894114939001</v>
@@ -942,7 +1389,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>714128</v>
@@ -959,14 +1406,14 @@
       <c r="G10" s="2" t="n">
         <v>10199000</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>0.3202795709919981</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0.1384198882161155</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <v>-0.1818596827758825</v>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>0.1096465530477507</v>
@@ -983,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>721</v>
@@ -1000,14 +1447,14 @@
       <c r="G11" s="2" t="n">
         <v>1425000</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0.002243163950084157</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.05535057963727524</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>0.05310741568719109</v>
+      <c r="H11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>0.0006477987421383648</v>
@@ -1024,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>334999</v>
@@ -1041,14 +1488,14 @@
       <c r="G12" s="2" t="n">
         <v>3122000</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>0.3541698603720803</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0.2330030773347605</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>-0.1211667830373198</v>
+      <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>0.1204599065084502</v>
@@ -1065,7 +1512,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>10086</v>
@@ -1082,14 +1529,14 @@
       <c r="G13" s="2" t="n">
         <v>1653000</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>0.02487827258062129</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0.008103165173744143</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>-0.01677510740687715</v>
+      <c r="H13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>0.009966403162055337</v>
@@ -1106,7 +1553,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>748159</v>
@@ -1123,14 +1570,14 @@
       <c r="G14" s="2" t="n">
         <v>12839000</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>0.2089143926225331</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0.2156951764508946</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>0.006780783828361447</v>
+      <c r="H14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>0.06532428184755086</v>
@@ -1147,7 +1594,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1361800</v>
@@ -1164,14 +1611,14 @@
       <c r="G15" s="2" t="n">
         <v>6613000</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>0.5463794637071714</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0.3539501406529798</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>-0.1924293230541916</v>
+      <c r="H15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>0.2450161928751349</v>
@@ -1188,7 +1635,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>271741</v>
@@ -1205,14 +1652,14 @@
       <c r="G16" s="2" t="n">
         <v>2907000</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>0.2548077509130718</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0.252547728635149</v>
-      </c>
-      <c r="J16" s="3" t="n">
-        <v>-0.002260022277922824</v>
+      <c r="H16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>0.1095288190245869</v>
@@ -1229,7 +1676,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>803503</v>
@@ -1246,14 +1693,14 @@
       <c r="G17" s="2" t="n">
         <v>4425000</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>0.5492899590717274</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.4616024795476726</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>-0.08768747952405476</v>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>0.2175157011369789</v>
@@ -1270,7 +1717,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>208871</v>
@@ -1287,14 +1734,14 @@
       <c r="G18" s="2" t="n">
         <v>4669000</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>0.0541353457510294</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0.04090753053959029</v>
-      </c>
-      <c r="J18" s="3" t="n">
-        <v>-0.01322781521143911</v>
+      <c r="H18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>0.0494720511605874</v>
@@ -1311,7 +1758,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>114004</v>
@@ -1328,14 +1775,14 @@
       <c r="G19" s="2" t="n">
         <v>6784000</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>0.08103539700975661</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0.01673312067129042</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>-0.06430227633846619</v>
+      <c r="H19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>0.01892810891582268</v>
@@ -1352,7 +1799,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>286482</v>
@@ -1369,14 +1816,14 @@
       <c r="G20" s="2" t="n">
         <v>5995000</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>0.225760007943469</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0.1186123850097108</v>
-      </c>
-      <c r="J20" s="3" t="n">
-        <v>-0.1071476229337581</v>
+      <c r="H20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>0.05968375</v>
@@ -1393,7 +1840,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>10413</v>
@@ -1410,14 +1857,14 @@
       <c r="G21" s="2" t="n">
         <v>1329000</v>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>0.02277200440875453</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0.006379899864168283</v>
-      </c>
-      <c r="J21" s="3" t="n">
-        <v>-0.01639210454458624</v>
+      <c r="H21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="K21" s="2" t="n">
         <v>0.00845211038961039</v>
@@ -1434,7 +1881,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>788043</v>
@@ -1451,14 +1898,14 @@
       <c r="G22" s="2" t="n">
         <v>9918000</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>0.2741870779341201</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0.2230583215410566</v>
-      </c>
-      <c r="J22" s="3" t="n">
-        <v>-0.05112875639306341</v>
+      <c r="H22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>0.08463569971002041</v>
@@ -1475,7 +1922,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>325469</v>
@@ -1492,14 +1939,14 @@
       <c r="G23" s="2" t="n">
         <v>5482000</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>0.2323095986192857</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0.1534362268146431</v>
-      </c>
-      <c r="J23" s="3" t="n">
-        <v>-0.0788733718046426</v>
+      <c r="H23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="K23" s="2" t="n">
         <v>0.07413872437357631</v>
@@ -1516,7 +1963,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>539572</v>
@@ -1533,14 +1980,14 @@
       <c r="G24" s="2" t="n">
         <v>6076000</v>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>0.3636768042230757</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0.381221944864131</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>0.01754514064105533</v>
+      <c r="H24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>0.1052002339637356</v>
@@ -1557,7 +2004,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>103944</v>
@@ -1574,14 +2021,14 @@
       <c r="G25" s="2" t="n">
         <v>2989000</v>
       </c>
-      <c r="H25" s="2" t="n">
-        <v>0.1010134974261694</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0.06323530710079545</v>
-      </c>
-      <c r="J25" s="3" t="n">
-        <v>-0.03777819032537395</v>
+      <c r="H25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="K25" s="2" t="n">
         <v>0.04030399379604498</v>
@@ -1598,7 +2045,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>168848</v>
@@ -1615,14 +2062,14 @@
       <c r="G26" s="2" t="n">
         <v>1032000</v>
       </c>
-      <c r="H26" s="2" t="n">
-        <v>0.4858222246519216</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0.455813751488118</v>
-      </c>
-      <c r="J26" s="3" t="n">
-        <v>-0.03000847316380356</v>
+      <c r="H26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>0.21106</v>
@@ -1639,7 +2086,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>568294</v>
@@ -1656,14 +2103,14 @@
       <c r="G27" s="2" t="n">
         <v>10035000</v>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>0.2764537079872761</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0.1606854804358172</v>
-      </c>
-      <c r="J27" s="3" t="n">
-        <v>-0.1157682275514589</v>
+      <c r="H27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>0.08527821128451381</v>
@@ -1680,7 +2127,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>374517</v>
@@ -1697,14 +2144,14 @@
       <c r="G28" s="2" t="n">
         <v>757000</v>
       </c>
-      <c r="H28" s="2" t="n">
-        <v>1.198446729940928</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0.6716850762801553</v>
-      </c>
-      <c r="J28" s="3" t="n">
-        <v>-0.526761653660773</v>
+      <c r="H28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>0.5870172413793103</v>
@@ -1721,7 +2168,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>142021</v>
@@ -1738,14 +2185,14 @@
       <c r="G29" s="2" t="n">
         <v>2884000</v>
       </c>
-      <c r="H29" s="2" t="n">
-        <v>0.2702572582839679</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0.3121702548641986</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>0.04191299658023073</v>
+      <c r="H29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>0.1163153153153153</v>
@@ -1762,7 +2209,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>31544</v>
@@ -1779,14 +2226,14 @@
       <c r="G30" s="2" t="n">
         <v>1330000</v>
       </c>
-      <c r="H30" s="2" t="n">
-        <v>0.1179413359256697</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0.03600424620102616</v>
-      </c>
-      <c r="J30" s="3" t="n">
-        <v>-0.08193708972464359</v>
+      <c r="H30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>0.02836690647482014</v>
@@ -1803,7 +2250,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>80800</v>
@@ -1820,14 +2267,14 @@
       <c r="G31" s="2" t="n">
         <v>8935000</v>
       </c>
-      <c r="H31" s="2" t="n">
-        <v>0.03597748557449766</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0.01002118765389681</v>
-      </c>
-      <c r="J31" s="3" t="n">
-        <v>-0.02595629792060085</v>
+      <c r="H31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>0.01040834728841943</v>
@@ -1844,7 +2291,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>275661</v>
@@ -1861,14 +2308,14 @@
       <c r="G32" s="2" t="n">
         <v>2080000</v>
       </c>
-      <c r="H32" s="2" t="n">
-        <v>0.4621780265877986</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0.3192965212409908</v>
-      </c>
-      <c r="J32" s="3" t="n">
-        <v>-0.1428815053468078</v>
+      <c r="H32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>0.1811176084099869</v>
@@ -1885,7 +2332,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>165306</v>
@@ -1902,14 +2349,14 @@
       <c r="G33" s="2" t="n">
         <v>1894000</v>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>0.4101112445295676</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>0.05640162700257722</v>
-      </c>
-      <c r="J33" s="3" t="n">
-        <v>-0.3537096175269904</v>
+      <c r="H33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>0.1044917825537295</v>
@@ -1926,7 +2373,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>349779</v>
@@ -1943,14 +2390,14 @@
       <c r="G34" s="2" t="n">
         <v>19747000</v>
       </c>
-      <c r="H34" s="2" t="n">
-        <v>0.0936371377868345</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0.01107297893500072</v>
-      </c>
-      <c r="J34" s="3" t="n">
-        <v>-0.08256415885183377</v>
+      <c r="H34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>0.01940952222407192</v>
@@ -1967,7 +2414,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1425314</v>
@@ -1984,14 +2431,14 @@
       <c r="G35" s="2" t="n">
         <v>11605000</v>
       </c>
-      <c r="H35" s="2" t="n">
-        <v>0.3779939810095228</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>0.2314219212921566</v>
-      </c>
-      <c r="J35" s="3" t="n">
-        <v>-0.1465720597173663</v>
+      <c r="H35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>0.1311960603829161</v>
@@ -2008,7 +2455,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>278807</v>
@@ -2025,14 +2472,14 @@
       <c r="G36" s="2" t="n">
         <v>3907000</v>
       </c>
-      <c r="H36" s="2" t="n">
-        <v>0.2016184026409323</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.1721461551196601</v>
-      </c>
-      <c r="J36" s="3" t="n">
-        <v>-0.02947224752127223</v>
+      <c r="H36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>0.08853826611622738</v>
@@ -2049,7 +2496,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>15658</v>
@@ -2066,14 +2513,14 @@
       <c r="G37" s="2" t="n">
         <v>4025000</v>
       </c>
-      <c r="H37" s="2" t="n">
-        <v>0.01600701699863831</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.0277152939504041</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.01170827695176579</v>
+      <c r="H37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>0.005474825174825175</v>
@@ -2090,7 +2537,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1469705</v>
@@ -2107,14 +2554,14 @@
       <c r="G38" s="2" t="n">
         <v>12792000</v>
       </c>
-      <c r="H38" s="2" t="n">
-        <v>0.4042001803039645</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0.2264226048252085</v>
-      </c>
-      <c r="J38" s="3" t="n">
-        <v>-0.1777775754787561</v>
+      <c r="H38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>0.1234734940771234</v>
@@ -2131,7 +2578,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>129</v>
@@ -2148,14 +2595,14 @@
       <c r="G39" s="2" t="n">
         <v>1056000</v>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>0.0006064709035006065</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3" t="n">
-        <v>-0.0006064709035006065</v>
+      <c r="H39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>0.0001282306163021869</v>
@@ -2172,7 +2619,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>289222</v>
@@ -2189,14 +2636,14 @@
       <c r="G40" s="2" t="n">
         <v>4895000</v>
       </c>
-      <c r="H40" s="2" t="n">
-        <v>0.2290031125268318</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0.1463262092293059</v>
-      </c>
-      <c r="J40" s="3" t="n">
-        <v>-0.08267690329752589</v>
+      <c r="H40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>0.08261125392744929</v>
@@ -2213,7 +2660,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>34882</v>
@@ -2230,14 +2677,14 @@
       <c r="G41" s="2" t="n">
         <v>858000</v>
       </c>
-      <c r="H41" s="2" t="n">
-        <v>0.1605128016344862</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0.05115006818792226</v>
-      </c>
-      <c r="J41" s="3" t="n">
-        <v>-0.1093627334465639</v>
+      <c r="H41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>0.05004591104734576</v>
@@ -2254,7 +2701,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>600526</v>
@@ -2271,14 +2718,14 @@
       <c r="G42" s="2" t="n">
         <v>6595000</v>
       </c>
-      <c r="H42" s="2" t="n">
-        <v>0.3351071012844565</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0.1710072472193156</v>
-      </c>
-      <c r="J42" s="3" t="n">
-        <v>-0.1640998540651409</v>
+      <c r="H42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>0.1227065794850838</v>
@@ -2295,7 +2742,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1333671</v>
@@ -2312,14 +2759,14 @@
       <c r="G43" s="2" t="n">
         <v>27430000</v>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>0.1294153881803735</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0.1039279612101687</v>
-      </c>
-      <c r="J43" s="3" t="n">
-        <v>-0.02548742697020481</v>
+      <c r="H43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>0.07818907193527584</v>
@@ -2336,7 +2783,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>366842</v>
@@ -2353,14 +2800,14 @@
       <c r="G44" s="2" t="n">
         <v>2991000</v>
       </c>
-      <c r="H44" s="2" t="n">
-        <v>0.6845893587281682</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0.4172367105298089</v>
-      </c>
-      <c r="J44" s="3" t="n">
-        <v>-0.2673526481983592</v>
+      <c r="H44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>0.2119248989023686</v>
@@ -2377,7 +2824,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>355067</v>
@@ -2394,14 +2841,14 @@
       <c r="G45" s="2" t="n">
         <v>8368000</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>0.180816863006911</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0.09816577191610927</v>
-      </c>
-      <c r="J45" s="3" t="n">
-        <v>-0.08265109109080172</v>
+      <c r="H45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>0.05711227280038604</v>
@@ -2418,7 +2865,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>201</v>
@@ -2435,14 +2882,14 @@
       <c r="G46" s="2" t="n">
         <v>626000</v>
       </c>
-      <c r="H46" s="2" t="n">
-        <v>0.001593366521863208</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="n">
-        <v>-0.001593366521863208</v>
+      <c r="H46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>0.0003557522123893805</v>
@@ -2459,7 +2906,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>85575</v>
@@ -2476,14 +2923,14 @@
       <c r="G47" s="2" t="n">
         <v>7160000</v>
       </c>
-      <c r="H47" s="2" t="n">
-        <v>0.04181468143638256</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0.02930656600251258</v>
-      </c>
-      <c r="J47" s="3" t="n">
-        <v>-0.01250811543386998</v>
+      <c r="H47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>0.01745359983683459</v>
@@ -2500,7 +2947,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>394460</v>
@@ -2517,14 +2964,14 @@
       <c r="G48" s="2" t="n">
         <v>5768000</v>
       </c>
-      <c r="H48" s="2" t="n">
-        <v>0.2656713140849709</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0.2298120804915701</v>
-      </c>
-      <c r="J48" s="3" t="n">
-        <v>-0.03585923359340076</v>
+      <c r="H48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>0.08041997961264016</v>
@@ -2541,7 +2988,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>873485</v>
@@ -2558,14 +3005,14 @@
       <c r="G49" s="2" t="n">
         <v>1841000</v>
       </c>
-      <c r="H49" s="4" t="n">
-        <v>1.23981939630333</v>
-      </c>
-      <c r="I49" s="4" t="n">
-        <v>0.9432634547014834</v>
-      </c>
-      <c r="J49" s="3" t="n">
-        <v>-0.2965559416018467</v>
+      <c r="H49" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>0.4871639709983268</v>
@@ -2582,7 +3029,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>459772</v>
@@ -2599,14 +3046,14 @@
       <c r="G50" s="2" t="n">
         <v>587000</v>
       </c>
-      <c r="H50" s="2" t="n">
-        <v>1.151067393367065</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>0.9301531235680465</v>
-      </c>
-      <c r="J50" s="3" t="n">
-        <v>-0.2209142697990181</v>
+      <c r="H50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>1.012713656387665</v>
@@ -2623,7 +3070,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>19167682</v>
@@ -2640,14 +3087,14 @@
       <c r="G51" s="4" t="n">
         <v>320897000</v>
       </c>
-      <c r="H51" s="2" t="n">
-        <v>0.2268203463119451</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0.1598850516987873</v>
-      </c>
-      <c r="J51" s="3" t="n">
-        <v>-0.06693529461315781</v>
+      <c r="H51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>0.07678652207528953</v>

--- a/consumption_tables/Total energy consumption._              Billion Btu/Coal total consumption._            Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Coal total consumption._            Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>StateCode</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>ChangeConsumptionPerCapita</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>2.1207602344187384%</t>
+  </si>
+  <si>
+    <t>3.147488832714138%</t>
+  </si>
+  <si>
+    <t>1.0267285982953998%</t>
   </si>
   <si>
     <t>AL</t>
@@ -1010,7 +1022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,19 +1076,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>682496</v>
+        <v>12387</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>494311</v>
+        <v>19511</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.724269446267817</v>
+        <v>1.575119076451118</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4050000</v>
+        <v>553000</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4854000</v>
+        <v>738000</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
@@ -1088,13 +1100,13 @@
         <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>0.1685175308641975</v>
+        <v>0.0223996383363472</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0.1018358055212196</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>-0.06668172534297791</v>
+        <v>0.02643766937669377</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0.004038031040346571</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1105,19 +1117,19 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>212707</v>
+        <v>682496</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>226889</v>
+        <v>494311</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.066673875330854</v>
+        <v>0.724269446267817</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2357000</v>
+        <v>4050000</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2978000</v>
+        <v>4854000</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
@@ -1129,13 +1141,13 @@
         <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>0.09024480271531608</v>
+        <v>0.1685175308641975</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0.07618838146406985</v>
+        <v>0.1018358055212196</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>-0.01405642125124623</v>
+        <v>-0.06668172534297791</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1146,19 +1158,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>343415</v>
+        <v>212707</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>385822</v>
+        <v>226889</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.123486161058777</v>
+        <v>1.066673875330854</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3684000</v>
+        <v>2357000</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6818000</v>
+        <v>2978000</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
@@ -1170,13 +1182,13 @@
         <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0.09321796959826276</v>
+        <v>0.09024480271531608</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.05658873569961866</v>
+        <v>0.07618838146406985</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>-0.0366292338986441</v>
+        <v>-0.01405642125124623</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1187,19 +1199,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>84160</v>
+        <v>343415</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>30967</v>
+        <v>385822</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.3679538973384031</v>
+        <v>1.123486161058777</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>29960000</v>
+        <v>3684000</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>38994000</v>
+        <v>6818000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>25</v>
@@ -1211,13 +1223,13 @@
         <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>0.002809078771695594</v>
+        <v>0.09321796959826276</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.0007941478176129661</v>
+        <v>0.05658873569961866</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>-0.002014930954082628</v>
+        <v>-0.0366292338986441</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1228,19 +1240,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>337375</v>
+        <v>84160</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>340107</v>
+        <v>30967</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.008097814005187</v>
+        <v>0.3679538973384031</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3308000</v>
+        <v>29960000</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5449000</v>
+        <v>38994000</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1252,13 +1264,13 @@
         <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0.1019876058041112</v>
+        <v>0.002809078771695594</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.06241640668012479</v>
+        <v>0.0007941478176129661</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>-0.03957119912398645</v>
+        <v>-0.002014930954082628</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1269,19 +1281,19 @@
         <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>38511</v>
+        <v>337375</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6536</v>
+        <v>340107</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.1697177429825245</v>
+        <v>1.008097814005187</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3292000</v>
+        <v>3308000</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3585000</v>
+        <v>5449000</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>33</v>
@@ -1293,13 +1305,13 @@
         <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.01169835965978129</v>
+        <v>0.1019876058041112</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.001823152022315202</v>
+        <v>0.06241640668012479</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>-0.009875207637466087</v>
+        <v>-0.03957119912398645</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1310,19 +1322,19 @@
         <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>59491</v>
+        <v>38511</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>7149</v>
+        <v>6536</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.1201694373938915</v>
+        <v>0.1697177429825245</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>670000</v>
+        <v>3292000</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>944000</v>
+        <v>3585000</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>37</v>
@@ -1334,13 +1346,13 @@
         <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.08879253731343284</v>
+        <v>0.01169835965978129</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.007573093220338983</v>
+        <v>0.001823152022315202</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>-0.08121944409309385</v>
+        <v>-0.009875207637466087</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1351,19 +1363,19 @@
         <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>633390</v>
+        <v>59491</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>466530</v>
+        <v>7149</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.7365604130156775</v>
+        <v>0.1201694373938915</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>13033000</v>
+        <v>670000</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>20245000</v>
+        <v>944000</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>41</v>
@@ -1375,13 +1387,13 @@
         <v>43</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.04859894114939001</v>
+        <v>0.08879253731343284</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.02304420844653001</v>
+        <v>0.007573093220338983</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>-0.02555473270286</v>
+        <v>-0.08121944409309385</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1392,19 +1404,19 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>714128</v>
+        <v>633390</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>394665</v>
+        <v>466530</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.5526530257880941</v>
+        <v>0.7365604130156775</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6513000</v>
+        <v>13033000</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>10199000</v>
+        <v>20245000</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>45</v>
@@ -1416,13 +1428,13 @@
         <v>47</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.1096465530477507</v>
+        <v>0.04859894114939001</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.03869644082753211</v>
+        <v>0.02304420844653001</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>-0.07095011222021855</v>
+        <v>-0.02555473270286</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1433,19 +1445,19 @@
         <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>721</v>
+        <v>714128</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>15632</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>21.68099861303745</v>
+        <v>394665</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0.5526530257880941</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1113000</v>
+        <v>6513000</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1425000</v>
+        <v>10199000</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>49</v>
@@ -1453,17 +1465,17 @@
       <c r="I11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>51</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.0006477987421383648</v>
+        <v>0.1096465530477507</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.01096982456140351</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>0.01032202581926514</v>
+        <v>0.03869644082753211</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>-0.07095011222021855</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1474,19 +1486,19 @@
         <v>52</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>334999</v>
+        <v>721</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>348293</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>1.03968370054836</v>
+        <v>15632</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>21.68099861303745</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2781000</v>
+        <v>1113000</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3122000</v>
+        <v>1425000</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>53</v>
@@ -1494,17 +1506,17 @@
       <c r="I12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.1204599065084502</v>
+        <v>0.0006477987421383648</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.1115608584240871</v>
-      </c>
-      <c r="M12" s="3" t="n">
-        <v>-0.008899048084363079</v>
+        <v>0.01096982456140351</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v>0.01032202581926514</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1515,19 +1527,19 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>10086</v>
+        <v>334999</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>4249</v>
+        <v>348293</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.4212770176482253</v>
+        <v>1.03968370054836</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1012000</v>
+        <v>2781000</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1653000</v>
+        <v>3122000</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>57</v>
@@ -1539,13 +1551,13 @@
         <v>59</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.009966403162055337</v>
+        <v>0.1204599065084502</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0.002570477918935269</v>
+        <v>0.1115608584240871</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>-0.007395925243120067</v>
+        <v>-0.008899048084363079</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1556,19 +1568,19 @@
         <v>60</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>748159</v>
+        <v>10086</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>850430</v>
+        <v>4249</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.136696878604682</v>
+        <v>0.4212770176482253</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>11453000</v>
+        <v>1012000</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>12839000</v>
+        <v>1653000</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>61</v>
@@ -1580,13 +1592,13 @@
         <v>63</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0.06532428184755086</v>
+        <v>0.009966403162055337</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0.06623802476828414</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>0.0009137429207332765</v>
+        <v>0.002570477918935269</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>-0.007395925243120067</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1597,19 +1609,19 @@
         <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1361800</v>
+        <v>748159</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1007472</v>
+        <v>850430</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.7398090762226465</v>
+        <v>1.136696878604682</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5558000</v>
+        <v>11453000</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6613000</v>
+        <v>12839000</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>65</v>
@@ -1621,13 +1633,13 @@
         <v>67</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>0.2450161928751349</v>
+        <v>0.06532428184755086</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.1523471949190987</v>
-      </c>
-      <c r="M15" s="3" t="n">
-        <v>-0.0926689979560362</v>
+        <v>0.06623802476828414</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>0.0009137429207332765</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1638,19 +1650,19 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>271741</v>
+        <v>1361800</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>273416</v>
+        <v>1007472</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1.006163957591972</v>
+        <v>0.7398090762226465</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2481000</v>
+        <v>5558000</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2907000</v>
+        <v>6613000</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>69</v>
@@ -1662,13 +1674,13 @@
         <v>71</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0.1095288190245869</v>
+        <v>0.2450161928751349</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.09405435156518747</v>
+        <v>0.1523471949190987</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>-0.01547446745939939</v>
+        <v>-0.0926689979560362</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1679,19 +1691,19 @@
         <v>72</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>803503</v>
+        <v>271741</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>796484</v>
+        <v>273416</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.9912645005681373</v>
+        <v>1.006163957591972</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3694000</v>
+        <v>2481000</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4425000</v>
+        <v>2907000</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -1703,13 +1715,13 @@
         <v>75</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0.2175157011369789</v>
+        <v>0.1095288190245869</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0.1799963841807909</v>
+        <v>0.09405435156518747</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>-0.03751931695618793</v>
+        <v>-0.01547446745939939</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1720,19 +1732,19 @@
         <v>76</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>208871</v>
+        <v>803503</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>174221</v>
+        <v>796484</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.8341081337284736</v>
+        <v>0.9912645005681373</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4222000</v>
+        <v>3694000</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4669000</v>
+        <v>4425000</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>77</v>
@@ -1744,13 +1756,13 @@
         <v>79</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0.0494720511605874</v>
+        <v>0.2175157011369789</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0.0373144142214607</v>
+        <v>0.1799963841807909</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>-0.0121576369391267</v>
+        <v>-0.03751931695618793</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1761,19 +1773,19 @@
         <v>80</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>114004</v>
+        <v>208871</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>24177</v>
+        <v>174221</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.2120715062629381</v>
+        <v>0.8341081337284736</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6023000</v>
+        <v>4222000</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6784000</v>
+        <v>4669000</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>81</v>
@@ -1785,13 +1797,13 @@
         <v>83</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>0.01892810891582268</v>
+        <v>0.0494720511605874</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.003563826650943396</v>
+        <v>0.0373144142214607</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>-0.01536428226487929</v>
+        <v>-0.0121576369391267</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1802,19 +1814,19 @@
         <v>84</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>286482</v>
+        <v>114004</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>165994</v>
+        <v>24177</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.5794220928365482</v>
+        <v>0.2120715062629381</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4800000</v>
+        <v>6023000</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5995000</v>
+        <v>6784000</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>85</v>
@@ -1826,13 +1838,13 @@
         <v>87</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0.05968375</v>
+        <v>0.01892810891582268</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.02768874061718098</v>
+        <v>0.003563826650943396</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>-0.03199500938281902</v>
+        <v>-0.01536428226487929</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1843,19 +1855,19 @@
         <v>88</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>10413</v>
+        <v>286482</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2588</v>
+        <v>165994</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.2485354844905407</v>
+        <v>0.5794220928365482</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1232000</v>
+        <v>4800000</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1329000</v>
+        <v>5995000</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>89</v>
@@ -1867,13 +1879,13 @@
         <v>91</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0.00845211038961039</v>
+        <v>0.05968375</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.001947328818660647</v>
+        <v>0.02768874061718098</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>-0.006504781570949743</v>
+        <v>-0.03199500938281902</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1884,19 +1896,19 @@
         <v>92</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>788043</v>
+        <v>10413</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>617280</v>
+        <v>2588</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.7833075098693854</v>
+        <v>0.2485354844905407</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9311000</v>
+        <v>1232000</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>9918000</v>
+        <v>1329000</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>93</v>
@@ -1908,13 +1920,13 @@
         <v>95</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0.08463569971002041</v>
+        <v>0.00845211038961039</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.06223835450695705</v>
+        <v>0.001947328818660647</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>-0.02239734520306336</v>
+        <v>-0.006504781570949743</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1925,19 +1937,19 @@
         <v>96</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>325469</v>
+        <v>788043</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>271570</v>
+        <v>617280</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.8343959025283514</v>
+        <v>0.7833075098693854</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4390000</v>
+        <v>9311000</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5482000</v>
+        <v>9918000</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>97</v>
@@ -1949,13 +1961,13 @@
         <v>99</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>0.07413872437357631</v>
+        <v>0.08463569971002041</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0.04953848960233492</v>
+        <v>0.06223835450695705</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>-0.0246002347712414</v>
+        <v>-0.02239734520306336</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1966,19 +1978,19 @@
         <v>100</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>539572</v>
+        <v>325469</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>696401</v>
+        <v>271570</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.290654444633895</v>
+        <v>0.8343959025283514</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5129000</v>
+        <v>4390000</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6076000</v>
+        <v>5482000</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>101</v>
@@ -1990,13 +2002,13 @@
         <v>103</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.1052002339637356</v>
+        <v>0.07413872437357631</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.1146150427913101</v>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>0.00941480882757445</v>
+        <v>0.04953848960233492</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>-0.0246002347712414</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2007,19 +2019,19 @@
         <v>104</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>103944</v>
+        <v>539572</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>71626</v>
+        <v>696401</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.6890825829292696</v>
+        <v>1.290654444633895</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2579000</v>
+        <v>5129000</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2989000</v>
+        <v>6076000</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>105</v>
@@ -2031,13 +2043,13 @@
         <v>107</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0.04030399379604498</v>
+        <v>0.1052002339637356</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0.02396319839411174</v>
-      </c>
-      <c r="M25" s="3" t="n">
-        <v>-0.01634079540193323</v>
+        <v>0.1146150427913101</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <v>0.00941480882757445</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2048,19 +2060,19 @@
         <v>108</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>168848</v>
+        <v>103944</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>178421</v>
+        <v>71626</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1.056695963233204</v>
+        <v>0.6890825829292696</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>800000</v>
+        <v>2579000</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1032000</v>
+        <v>2989000</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>109</v>
@@ -2072,13 +2084,13 @@
         <v>111</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0.21106</v>
+        <v>0.04030399379604498</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0.1728885658914729</v>
+        <v>0.02396319839411174</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>-0.03817143410852714</v>
+        <v>-0.01634079540193323</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2089,19 +2101,19 @@
         <v>112</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>568294</v>
+        <v>168848</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>405525</v>
+        <v>178421</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.7135831101507318</v>
+        <v>1.056695963233204</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6664000</v>
+        <v>800000</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>10035000</v>
+        <v>1032000</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>113</v>
@@ -2113,13 +2125,13 @@
         <v>115</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>0.08527821128451381</v>
+        <v>0.21106</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0.04041106128550075</v>
+        <v>0.1728885658914729</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>-0.04486714999901306</v>
+        <v>-0.03817143410852714</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2130,19 +2142,19 @@
         <v>116</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>374517</v>
+        <v>568294</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>408091</v>
+        <v>405525</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1.089646130883244</v>
+        <v>0.7135831101507318</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>638000</v>
+        <v>6664000</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>757000</v>
+        <v>10035000</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>117</v>
@@ -2154,13 +2166,13 @@
         <v>119</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>0.5870172413793103</v>
+        <v>0.08527821128451381</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0.5390898282694848</v>
+        <v>0.04041106128550075</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>-0.04792741310982551</v>
+        <v>-0.04486714999901306</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2171,19 +2183,19 @@
         <v>120</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>142021</v>
+        <v>374517</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>266319</v>
+        <v>408091</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1.875208595911872</v>
+        <v>1.089646130883244</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1221000</v>
+        <v>638000</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2884000</v>
+        <v>757000</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>121</v>
@@ -2195,13 +2207,13 @@
         <v>123</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>0.1163153153153153</v>
+        <v>0.5870172413793103</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0.09234361997226075</v>
+        <v>0.5390898282694848</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>-0.02397169534305457</v>
+        <v>-0.04792741310982551</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2212,19 +2224,19 @@
         <v>124</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>31544</v>
+        <v>142021</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>10989</v>
+        <v>266319</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.348370530053259</v>
+        <v>1.875208595911872</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1112000</v>
+        <v>1221000</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1330000</v>
+        <v>2884000</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>125</v>
@@ -2236,13 +2248,13 @@
         <v>127</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>0.02836690647482014</v>
+        <v>0.1163153153153153</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0.008262406015037594</v>
+        <v>0.09234361997226075</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>-0.02010450045978255</v>
+        <v>-0.02397169534305457</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2253,19 +2265,19 @@
         <v>128</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>80800</v>
+        <v>31544</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>22925</v>
+        <v>10989</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.2837252475247525</v>
+        <v>0.348370530053259</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7763000</v>
+        <v>1112000</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>8935000</v>
+        <v>1330000</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>129</v>
@@ -2277,13 +2289,13 @@
         <v>131</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>0.01040834728841943</v>
+        <v>0.02836690647482014</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0.002565752658086178</v>
+        <v>0.008262406015037594</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>-0.007842594630333247</v>
+        <v>-0.02010450045978255</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2294,19 +2306,19 @@
         <v>132</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>275661</v>
+        <v>80800</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>215703</v>
+        <v>22925</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.7824937151065984</v>
+        <v>0.2837252475247525</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1522000</v>
+        <v>7763000</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2080000</v>
+        <v>8935000</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>133</v>
@@ -2318,13 +2330,13 @@
         <v>135</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>0.1811176084099869</v>
+        <v>0.01040834728841943</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0.1037033653846154</v>
+        <v>0.002565752658086178</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>-0.07741424302537148</v>
+        <v>-0.007842594630333247</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2335,19 +2347,19 @@
         <v>136</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>165306</v>
+        <v>275661</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>36635</v>
+        <v>215703</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.2216192999649136</v>
+        <v>0.7824937151065984</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1582000</v>
+        <v>1522000</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1894000</v>
+        <v>2080000</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>137</v>
@@ -2359,13 +2371,13 @@
         <v>139</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>0.1044917825537295</v>
+        <v>0.1811176084099869</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0.01934266103484689</v>
+        <v>0.1037033653846154</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>-0.08514912151888257</v>
+        <v>-0.07741424302537148</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2376,19 +2388,19 @@
         <v>140</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>349779</v>
+        <v>165306</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>41241</v>
+        <v>36635</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.1179058777113549</v>
+        <v>0.2216192999649136</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>18021000</v>
+        <v>1582000</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>19747000</v>
+        <v>1894000</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>141</v>
@@ -2400,13 +2412,13 @@
         <v>143</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0.01940952222407192</v>
+        <v>0.1044917825537295</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0.002088469134552084</v>
+        <v>0.01934266103484689</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>-0.01732105308951983</v>
+        <v>-0.08514912151888257</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2417,19 +2429,19 @@
         <v>144</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>1425314</v>
+        <v>349779</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>865714</v>
+        <v>41241</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.6073847587268489</v>
+        <v>0.1179058777113549</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>10864000</v>
+        <v>18021000</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>11605000</v>
+        <v>19747000</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -2441,13 +2453,13 @@
         <v>147</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>0.1311960603829161</v>
+        <v>0.01940952222407192</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0.0745983627746661</v>
+        <v>0.002088469134552084</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>-0.05659769760824997</v>
+        <v>-0.01732105308951983</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2458,19 +2470,19 @@
         <v>148</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>278807</v>
+        <v>1425314</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>280748</v>
+        <v>865714</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1.006961805119671</v>
+        <v>0.6073847587268489</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3149000</v>
+        <v>10864000</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3907000</v>
+        <v>11605000</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>149</v>
@@ -2482,13 +2494,13 @@
         <v>151</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>0.08853826611622738</v>
+        <v>0.1311960603829161</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0.07185769132326593</v>
+        <v>0.0745983627746661</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>-0.01668057479296145</v>
+        <v>-0.05659769760824997</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2499,19 +2511,19 @@
         <v>152</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>15658</v>
+        <v>278807</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>26515</v>
+        <v>280748</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1.69338357389194</v>
+        <v>1.006961805119671</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2860000</v>
+        <v>3149000</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4025000</v>
+        <v>3907000</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>153</v>
@@ -2523,13 +2535,13 @@
         <v>155</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>0.005474825174825175</v>
+        <v>0.08853826611622738</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0.006587577639751553</v>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>0.001112752464926378</v>
+        <v>0.07185769132326593</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>-0.01668057479296145</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2540,19 +2552,19 @@
         <v>156</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>1469705</v>
+        <v>15658</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>878829</v>
+        <v>26515</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.5979628564916089</v>
+        <v>1.69338357389194</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>11903000</v>
+        <v>2860000</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>12792000</v>
+        <v>4025000</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>157</v>
@@ -2564,13 +2576,13 @@
         <v>159</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>0.1234734940771234</v>
+        <v>0.005474825174825175</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0.06870145403377111</v>
-      </c>
-      <c r="M38" s="3" t="n">
-        <v>-0.0547720400433523</v>
+        <v>0.006587577639751553</v>
+      </c>
+      <c r="M38" s="2" t="n">
+        <v>0.001112752464926378</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2581,19 +2593,19 @@
         <v>160</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>129</v>
+        <v>1469705</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0</v>
+        <v>878829</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0</v>
+        <v>0.5979628564916089</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1006000</v>
+        <v>11903000</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1056000</v>
+        <v>12792000</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>161</v>
@@ -2605,13 +2617,13 @@
         <v>163</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>0.0001282306163021869</v>
+        <v>0.1234734940771234</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0</v>
+        <v>0.06870145403377111</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>-0.0001282306163021869</v>
+        <v>-0.0547720400433523</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2622,19 +2634,19 @@
         <v>164</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>289222</v>
+        <v>129</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>241217</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>0.8340202335921887</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>3501000</v>
+        <v>1006000</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4895000</v>
+        <v>1056000</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>165</v>
@@ -2646,13 +2658,13 @@
         <v>167</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>0.08261125392744929</v>
+        <v>0.0001282306163021869</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0.0492782431052094</v>
+        <v>0</v>
       </c>
       <c r="M40" s="3" t="n">
-        <v>-0.0333330108222399</v>
+        <v>-0.0001282306163021869</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2663,19 +2675,19 @@
         <v>168</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>34882</v>
+        <v>289222</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>19616</v>
+        <v>241217</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>0.5623530760850869</v>
+        <v>0.8340202335921887</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>697000</v>
+        <v>3501000</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>858000</v>
+        <v>4895000</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>169</v>
@@ -2687,13 +2699,13 @@
         <v>171</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>0.05004591104734576</v>
+        <v>0.08261125392744929</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0.02286247086247086</v>
+        <v>0.0492782431052094</v>
       </c>
       <c r="M41" s="3" t="n">
-        <v>-0.0271834401848749</v>
+        <v>-0.0333330108222399</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2704,19 +2716,19 @@
         <v>172</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>600526</v>
+        <v>34882</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>370650</v>
+        <v>19616</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.6172089135191482</v>
+        <v>0.5623530760850869</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>4894000</v>
+        <v>697000</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6595000</v>
+        <v>858000</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>173</v>
@@ -2728,13 +2740,13 @@
         <v>175</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>0.1227065794850838</v>
+        <v>0.05004591104734576</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0.05620166793025019</v>
+        <v>0.02286247086247086</v>
       </c>
       <c r="M42" s="3" t="n">
-        <v>-0.0665049115548336</v>
+        <v>-0.0271834401848749</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2745,19 +2757,19 @@
         <v>176</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>1333671</v>
+        <v>600526</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1340422</v>
+        <v>370650</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1.00506196805659</v>
+        <v>0.6172089135191482</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>17057000</v>
+        <v>4894000</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>27430000</v>
+        <v>6595000</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>177</v>
@@ -2769,36 +2781,36 @@
         <v>179</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>0.07818907193527584</v>
+        <v>0.1227065794850838</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0.04886700692672256</v>
+        <v>0.05620166793025019</v>
       </c>
       <c r="M43" s="3" t="n">
-        <v>-0.02932206500855328</v>
+        <v>-0.0665049115548336</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>366842</v>
+        <v>1333671</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>330043</v>
+        <v>1340422</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>0.8996870587337328</v>
+        <v>1.00506196805659</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>1731000</v>
+        <v>17057000</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2991000</v>
+        <v>27430000</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>181</v>
@@ -2810,13 +2822,13 @@
         <v>183</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>0.2119248989023686</v>
+        <v>0.07818907193527584</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0.1103453694416583</v>
+        <v>0.04886700692672256</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>-0.1015795294607103</v>
+        <v>-0.02932206500855328</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2827,19 +2839,19 @@
         <v>184</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>355067</v>
+        <v>366842</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>232427</v>
+        <v>330043</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>0.6546003993612474</v>
+        <v>0.8996870587337328</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>6217000</v>
+        <v>1731000</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>8368000</v>
+        <v>2991000</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>185</v>
@@ -2851,13 +2863,13 @@
         <v>187</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>0.05711227280038604</v>
+        <v>0.2119248989023686</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>0.0277756931166348</v>
+        <v>0.1103453694416583</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>-0.02933657968375124</v>
+        <v>-0.1015795294607103</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2868,37 +2880,37 @@
         <v>188</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>201</v>
+        <v>355067</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0</v>
+        <v>232427</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>0</v>
+        <v>0.6546003993612474</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>565000</v>
+        <v>6217000</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>626000</v>
+        <v>8368000</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>189</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>0.0003557522123893805</v>
+        <v>0.05711227280038604</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0</v>
+        <v>0.0277756931166348</v>
       </c>
       <c r="M46" s="3" t="n">
-        <v>-0.0003557522123893805</v>
+        <v>-0.02933657968375124</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2906,40 +2918,40 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>85575</v>
+        <v>201</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>58273</v>
+        <v>0</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>0.6809582237803097</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>4903000</v>
+        <v>565000</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>7160000</v>
+        <v>626000</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>194</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>0.01745359983683459</v>
+        <v>0.0003557522123893805</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0.008138687150837988</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>-0.009314912685996603</v>
+        <v>-0.0003557522123893805</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2950,19 +2962,19 @@
         <v>195</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>394460</v>
+        <v>85575</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>408189</v>
+        <v>58273</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1.034804542919434</v>
+        <v>0.6809582237803097</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>4905000</v>
+        <v>4903000</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>5768000</v>
+        <v>7160000</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>196</v>
@@ -2974,13 +2986,13 @@
         <v>198</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>0.08041997961264016</v>
+        <v>0.01745359983683459</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0.07076785714285715</v>
+        <v>0.008138687150837988</v>
       </c>
       <c r="M48" s="3" t="n">
-        <v>-0.009652122469783017</v>
+        <v>-0.009314912685996603</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2991,101 +3003,101 @@
         <v>199</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>873485</v>
+        <v>394460</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>730949</v>
+        <v>408189</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>0.8368191783487982</v>
+        <v>1.034804542919434</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1793000</v>
+        <v>4905000</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1841000</v>
-      </c>
-      <c r="H49" s="4" t="s">
+        <v>5768000</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="2" t="s">
         <v>201</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>202</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>0.4871639709983268</v>
+        <v>0.08041997961264016</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>0.3970391091797936</v>
+        <v>0.07076785714285715</v>
       </c>
       <c r="M49" s="3" t="n">
-        <v>-0.09012486181853324</v>
+        <v>-0.009652122469783017</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>459772</v>
+        <v>873485</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>487177</v>
+        <v>730949</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1.059605630616914</v>
+        <v>0.8368191783487982</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>454000</v>
+        <v>1793000</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>587000</v>
-      </c>
-      <c r="H50" s="2" t="s">
+        <v>1841000</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="4" t="s">
         <v>205</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K50" s="4" t="n">
-        <v>1.012713656387665</v>
-      </c>
-      <c r="L50" s="4" t="n">
-        <v>0.8299437819420784</v>
+      <c r="K50" s="2" t="n">
+        <v>0.4871639709983268</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>0.3970391091797936</v>
       </c>
       <c r="M50" s="3" t="n">
-        <v>-0.1827698744455869</v>
+        <v>-0.09012486181853324</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C51" s="4" t="n">
-        <v>19167682</v>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>15548985</v>
+      <c r="C51" s="2" t="n">
+        <v>459772</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>487177</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>0.8112084184201303</v>
-      </c>
-      <c r="F51" s="4" t="n">
-        <v>249623000</v>
-      </c>
-      <c r="G51" s="4" t="n">
-        <v>320897000</v>
+        <v>1.059605630616914</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>454000</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>587000</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>208</v>
@@ -3096,13 +3108,54 @@
       <c r="J51" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="K51" s="4" t="n">
+        <v>1.012713656387665</v>
+      </c>
+      <c r="L51" s="4" t="n">
+        <v>0.8299437819420784</v>
+      </c>
+      <c r="M51" s="3" t="n">
+        <v>-0.1827698744455869</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>19167682</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>15548985</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>0.8112084184201303</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>249623000</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>320897000</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K52" s="2" t="n">
         <v>0.07678652207528953</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L52" s="2" t="n">
         <v>0.04845475339439135</v>
       </c>
-      <c r="M51" s="3" t="n">
+      <c r="M52" s="3" t="n">
         <v>-0.02833176868089819</v>
       </c>
     </row>
